--- a/src/test/resources/ecxelFiles/dataEcxel.xlsx
+++ b/src/test/resources/ecxelFiles/dataEcxel.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilma\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1813484\Documents\Automatizaciones\ColorLib\ejercicioPomColorLib\src\test\resources\ecxelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97F61A2B-9C3B-4C55-9AEA-A59EACA78F5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{21C4D6E1-954F-4E30-BD67-A4E5ED3C9341}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,28 +30,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
   <si>
     <t>demo</t>
   </si>
   <si>
-    <t>tttttttt</t>
-  </si>
-  <si>
-    <t>demo2</t>
-  </si>
-  <si>
-    <t>rrrrrrrr</t>
+    <t>required</t>
+  </si>
+  <si>
+    <t>unnecessary</t>
+  </si>
+  <si>
+    <t>Tennis</t>
+  </si>
+  <si>
+    <t>Football</t>
+  </si>
+  <si>
+    <t>colorLib.com</t>
+  </si>
+  <si>
+    <t>palomino@hotmail.es</t>
+  </si>
+  <si>
+    <t>192.168.1.1</t>
+  </si>
+  <si>
+    <t>2019-11-12</t>
+  </si>
+  <si>
+    <t>2012/09/10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -75,13 +100,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -393,32 +422,114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10A99504-F5A8-41F5-8DE2-B5CC6F1090D2}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="G2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>6666666</v>
+      </c>
+      <c r="I2" s="1">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>